--- a/data/ecog_seeg_project_metadata.xlsx
+++ b/data/ecog_seeg_project_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/ecog_seeg/ecog_vs_seeg/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3674D99-F0D2-6C46-92F9-81309F2934A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786FB0DF-48B2-C149-9525-80AAE2D98C06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6620" yWindow="460" windowWidth="25260" windowHeight="17720" xr2:uid="{55386E59-C2B1-FE47-8A03-2662CFD6A014}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="148">
   <si>
     <t>Patient</t>
   </si>
@@ -162,9 +162,6 @@
     <t>HUP166</t>
   </si>
   <si>
-    <t>HUP170</t>
-  </si>
-  <si>
     <t>HUP171</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
   </si>
   <si>
     <t>RID0371</t>
-  </si>
-  <si>
-    <t>RID0442</t>
   </si>
   <si>
     <t>RID0382</t>
@@ -826,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE15CE-15A7-E440-8B77-868E4F33ECBC}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -873,28 +867,28 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
       <c r="J1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" t="s">
         <v>140</v>
       </c>
-      <c r="L1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" t="s">
-        <v>142</v>
-      </c>
       <c r="N1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -902,31 +896,31 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L2">
         <v>12</v>
@@ -935,7 +929,7 @@
         <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -943,34 +937,34 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" t="s">
         <v>131</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>133</v>
-      </c>
-      <c r="K3" t="s">
-        <v>135</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -979,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -987,34 +981,34 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -1023,7 +1017,7 @@
         <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1031,34 +1025,34 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L5">
         <v>13</v>
@@ -1067,7 +1061,7 @@
         <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1075,34 +1069,34 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" t="s">
         <v>131</v>
       </c>
-      <c r="J6" t="s">
-        <v>133</v>
-      </c>
       <c r="K6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L6">
         <v>12</v>
@@ -1111,7 +1105,7 @@
         <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1119,34 +1113,34 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1155,7 +1149,7 @@
         <v>40</v>
       </c>
       <c r="N7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1163,34 +1157,34 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" t="s">
         <v>133</v>
-      </c>
-      <c r="K8" t="s">
-        <v>135</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1199,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1207,34 +1201,34 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L9">
         <v>52</v>
@@ -1243,7 +1237,7 @@
         <v>57</v>
       </c>
       <c r="N9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1251,34 +1245,34 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" t="s">
         <v>133</v>
-      </c>
-      <c r="K10" t="s">
-        <v>135</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1287,7 +1281,7 @@
         <v>54</v>
       </c>
       <c r="N10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1295,37 +1289,37 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1333,34 +1327,34 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L12">
         <v>34</v>
@@ -1369,42 +1363,42 @@
         <v>56</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
         <v>143</v>
       </c>
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
       <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
         <v>133</v>
-      </c>
-      <c r="K13" t="s">
-        <v>135</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -1413,7 +1407,7 @@
         <v>29</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1421,34 +1415,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
         <v>131</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>133</v>
-      </c>
-      <c r="K14" t="s">
-        <v>135</v>
       </c>
       <c r="L14">
         <v>19</v>
@@ -1457,7 +1451,7 @@
         <v>24</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1465,34 +1459,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
         <v>133</v>
-      </c>
-      <c r="K15" t="s">
-        <v>135</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1501,7 +1495,7 @@
         <v>35</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1509,34 +1503,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L16">
         <v>20</v>
@@ -1545,7 +1539,7 @@
         <v>48</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1553,34 +1547,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L17">
         <v>27</v>
@@ -1589,7 +1583,7 @@
         <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1597,34 +1591,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L18">
         <v>24</v>
@@ -1633,7 +1627,7 @@
         <v>45</v>
       </c>
       <c r="N18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1641,34 +1635,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -1677,7 +1671,7 @@
         <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1685,34 +1679,34 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L20">
         <v>28</v>
@@ -1721,7 +1715,7 @@
         <v>40</v>
       </c>
       <c r="N20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1729,34 +1723,34 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
         <v>56</v>
       </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1765,7 +1759,7 @@
         <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1773,31 +1767,31 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
         <v>56</v>
       </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L22">
         <v>23</v>
@@ -1806,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="N22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1814,34 +1808,34 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L23">
         <v>42</v>
@@ -1850,7 +1844,7 @@
         <v>59</v>
       </c>
       <c r="N23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1858,34 +1852,34 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" t="s">
         <v>133</v>
-      </c>
-      <c r="K24" t="s">
-        <v>135</v>
       </c>
       <c r="L24">
         <v>12</v>
@@ -1894,7 +1888,7 @@
         <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1902,31 +1896,31 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L25">
         <v>44</v>
@@ -1935,7 +1929,7 @@
         <v>45</v>
       </c>
       <c r="N25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1943,34 +1937,34 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L26">
         <v>48</v>
@@ -1979,7 +1973,7 @@
         <v>57</v>
       </c>
       <c r="N26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -1987,31 +1981,31 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L27">
         <v>22</v>
@@ -2020,7 +2014,7 @@
         <v>26</v>
       </c>
       <c r="N27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -2028,34 +2022,34 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I28" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" t="s">
         <v>131</v>
       </c>
-      <c r="J28" t="s">
-        <v>133</v>
-      </c>
       <c r="K28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L28">
         <v>20</v>
@@ -2064,7 +2058,7 @@
         <v>46</v>
       </c>
       <c r="N28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -2072,34 +2066,34 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>56</v>
       </c>
-      <c r="D29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L29">
         <v>47</v>
@@ -2108,7 +2102,7 @@
         <v>52</v>
       </c>
       <c r="N29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -2116,34 +2110,34 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L30">
         <v>8</v>
@@ -2152,7 +2146,7 @@
         <v>32</v>
       </c>
       <c r="N30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -2160,34 +2154,34 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
         <v>56</v>
       </c>
-      <c r="D31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" t="s">
-        <v>57</v>
-      </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L31">
         <v>34</v>
@@ -2196,42 +2190,42 @@
         <v>37</v>
       </c>
       <c r="N31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" t="s">
         <v>144</v>
       </c>
-      <c r="B32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" t="s">
-        <v>146</v>
-      </c>
       <c r="J32" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" t="s">
         <v>133</v>
-      </c>
-      <c r="K32" t="s">
-        <v>135</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2240,7 +2234,7 @@
         <v>20</v>
       </c>
       <c r="N32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2248,34 +2242,34 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L33">
         <v>26</v>
@@ -2284,7 +2278,7 @@
         <v>47</v>
       </c>
       <c r="N33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2292,34 +2286,34 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s">
         <v>56</v>
       </c>
-      <c r="D34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" t="s">
-        <v>57</v>
-      </c>
       <c r="G34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L34">
         <v>14</v>
@@ -2328,7 +2322,7 @@
         <v>30</v>
       </c>
       <c r="N34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2336,34 +2330,34 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L35">
         <v>5</v>
@@ -2372,7 +2366,7 @@
         <v>31</v>
       </c>
       <c r="N35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -2380,34 +2374,34 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L36">
         <v>4</v>
@@ -2416,7 +2410,7 @@
         <v>16</v>
       </c>
       <c r="N36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2424,34 +2418,34 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L37">
         <v>4</v>
@@ -2460,7 +2454,7 @@
         <v>17</v>
       </c>
       <c r="N37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -2468,37 +2462,37 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -2506,34 +2500,34 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L39">
         <v>16</v>
@@ -2542,7 +2536,7 @@
         <v>25</v>
       </c>
       <c r="N39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2550,34 +2544,34 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" t="s">
         <v>56</v>
       </c>
-      <c r="D40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" t="s">
-        <v>57</v>
-      </c>
       <c r="G40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L40">
         <v>7</v>
@@ -2586,7 +2580,7 @@
         <v>32</v>
       </c>
       <c r="N40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2594,34 +2588,34 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L41">
         <v>15</v>
@@ -2630,7 +2624,7 @@
         <v>45</v>
       </c>
       <c r="N41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2638,34 +2632,34 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" t="s">
         <v>56</v>
       </c>
-      <c r="D42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" t="s">
-        <v>57</v>
-      </c>
       <c r="G42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L42">
         <v>21</v>
@@ -2674,7 +2668,7 @@
         <v>35</v>
       </c>
       <c r="N42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2682,34 +2676,34 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" t="s">
         <v>133</v>
-      </c>
-      <c r="K43" t="s">
-        <v>135</v>
       </c>
       <c r="L43">
         <v>14</v>
@@ -2718,7 +2712,7 @@
         <v>34</v>
       </c>
       <c r="N43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2726,34 +2720,34 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L44">
         <v>12</v>
@@ -2762,7 +2756,7 @@
         <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2770,31 +2764,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L45">
         <v>4</v>
@@ -2803,42 +2797,42 @@
         <v>26</v>
       </c>
       <c r="N45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" t="s">
         <v>56</v>
       </c>
-      <c r="D46" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" t="s">
-        <v>57</v>
-      </c>
       <c r="G46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I46" t="s">
+        <v>129</v>
+      </c>
+      <c r="J46" t="s">
         <v>131</v>
       </c>
-      <c r="J46" t="s">
-        <v>133</v>
-      </c>
       <c r="K46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L46">
         <v>6</v>
@@ -2847,42 +2841,42 @@
         <v>50</v>
       </c>
       <c r="N46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" t="s">
         <v>56</v>
       </c>
-      <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" t="s">
-        <v>57</v>
-      </c>
       <c r="G47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H47" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I47" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" t="s">
         <v>131</v>
       </c>
-      <c r="J47" t="s">
-        <v>133</v>
-      </c>
       <c r="K47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -2891,42 +2885,42 @@
         <v>28</v>
       </c>
       <c r="N47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L48">
         <v>12</v>
@@ -2935,42 +2929,42 @@
         <v>24</v>
       </c>
       <c r="N48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L49">
         <v>5</v>
@@ -2979,42 +2973,42 @@
         <v>42</v>
       </c>
       <c r="N49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I50" t="s">
+        <v>129</v>
+      </c>
+      <c r="J50" t="s">
         <v>131</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>133</v>
-      </c>
-      <c r="K50" t="s">
-        <v>135</v>
       </c>
       <c r="L50">
         <v>13</v>
@@ -3023,42 +3017,42 @@
         <v>20</v>
       </c>
       <c r="N50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I51" t="s">
+        <v>129</v>
+      </c>
+      <c r="J51" t="s">
         <v>131</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>133</v>
-      </c>
-      <c r="K51" t="s">
-        <v>135</v>
       </c>
       <c r="L51">
         <v>2</v>
@@ -3067,42 +3061,42 @@
         <v>28</v>
       </c>
       <c r="N51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J52" t="s">
+        <v>131</v>
+      </c>
+      <c r="K52" t="s">
         <v>133</v>
-      </c>
-      <c r="K52" t="s">
-        <v>135</v>
       </c>
       <c r="L52">
         <v>16</v>
@@ -3111,42 +3105,42 @@
         <v>31</v>
       </c>
       <c r="N52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J53" t="s">
+        <v>131</v>
+      </c>
+      <c r="K53" t="s">
         <v>133</v>
-      </c>
-      <c r="K53" t="s">
-        <v>135</v>
       </c>
       <c r="L53">
         <v>9</v>
@@ -3155,42 +3149,42 @@
         <v>38</v>
       </c>
       <c r="N53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L54">
         <v>18</v>
@@ -3199,42 +3193,42 @@
         <v>25</v>
       </c>
       <c r="N54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" t="s">
         <v>56</v>
       </c>
-      <c r="D55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" t="s">
-        <v>57</v>
-      </c>
       <c r="G55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I55" t="s">
+        <v>129</v>
+      </c>
+      <c r="J55" t="s">
         <v>131</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>133</v>
-      </c>
-      <c r="K55" t="s">
-        <v>135</v>
       </c>
       <c r="L55">
         <v>9</v>
@@ -3243,42 +3237,42 @@
         <v>24</v>
       </c>
       <c r="N55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L56">
         <v>12</v>
@@ -3287,39 +3281,39 @@
         <v>25</v>
       </c>
       <c r="N56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" t="s">
+        <v>117</v>
+      </c>
+      <c r="I57" t="s">
         <v>129</v>
       </c>
-      <c r="C57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" t="s">
-        <v>59</v>
-      </c>
-      <c r="G57" t="s">
-        <v>121</v>
-      </c>
-      <c r="H57" t="s">
-        <v>119</v>
-      </c>
-      <c r="I57" t="s">
-        <v>131</v>
-      </c>
       <c r="J57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L57">
         <v>23</v>
@@ -3328,39 +3322,39 @@
         <v>37</v>
       </c>
       <c r="N57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" t="s">
         <v>56</v>
       </c>
-      <c r="D58" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" t="s">
-        <v>57</v>
-      </c>
       <c r="G58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L58">
         <v>5</v>
@@ -3369,80 +3363,80 @@
         <v>36</v>
       </c>
       <c r="N58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" t="s">
         <v>56</v>
       </c>
-      <c r="D59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" t="s">
-        <v>57</v>
-      </c>
       <c r="G59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I59" t="s">
+        <v>132</v>
+      </c>
+      <c r="J59" t="s">
+        <v>130</v>
+      </c>
+      <c r="K59" t="s">
+        <v>135</v>
+      </c>
+      <c r="N59" t="s">
         <v>134</v>
-      </c>
-      <c r="J59" t="s">
-        <v>132</v>
-      </c>
-      <c r="K59" t="s">
-        <v>137</v>
-      </c>
-      <c r="N59" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
         <v>127</v>
       </c>
-      <c r="B60" t="s">
-        <v>129</v>
-      </c>
       <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" t="s">
         <v>56</v>
       </c>
-      <c r="D60" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" t="s">
-        <v>57</v>
-      </c>
       <c r="G60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J60" t="s">
+        <v>131</v>
+      </c>
+      <c r="K60" t="s">
         <v>133</v>
-      </c>
-      <c r="K60" t="s">
-        <v>135</v>
       </c>
       <c r="L60">
         <v>31</v>
@@ -3451,39 +3445,39 @@
         <v>33</v>
       </c>
       <c r="N60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" t="s">
         <v>129</v>
       </c>
-      <c r="C61" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" t="s">
-        <v>119</v>
-      </c>
-      <c r="I61" t="s">
-        <v>131</v>
-      </c>
       <c r="J61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L61">
         <v>5</v>
@@ -3492,51 +3486,7 @@
         <v>10</v>
       </c>
       <c r="N61" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" t="s">
-        <v>120</v>
-      </c>
-      <c r="H63" t="s">
-        <v>118</v>
-      </c>
-      <c r="I63" t="s">
-        <v>139</v>
-      </c>
-      <c r="J63" t="s">
-        <v>132</v>
-      </c>
-      <c r="K63" t="s">
-        <v>137</v>
-      </c>
-      <c r="L63">
-        <v>3</v>
-      </c>
-      <c r="M63">
-        <v>21</v>
-      </c>
-      <c r="N63" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
